--- a/data/data_metals_pellan.xlsx
+++ b/data/data_metals_pellan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regional_minerals_sustainability/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{BF578DF0-2D86-4DDF-9DE6-18E968EAC74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED49B99C-26DD-4790-8767-3B5C78CCB0BA}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{BF578DF0-2D86-4DDF-9DE6-18E968EAC74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB9AC5A-ED9A-4CAB-956A-A55FA40AEE1E}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2844DFE2-D459-4E43-A30E-C93D1E70E07A}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2844DFE2-D459-4E43-A30E-C93D1E70E07A}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -10293,10 +10293,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD982CFC-0FC2-4510-A499-E120BD59493A}" name="Tableau13" displayName="Tableau13" ref="A1:F2297" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:F2297" xr:uid="{AD982CFC-0FC2-4510-A499-E120BD59493A}"/>
@@ -10783,7 +10779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF205C2-BA5C-40AA-BEAA-0983134D4D2F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -10795,7 +10791,7 @@
     <col min="4" max="4" width="9" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -11225,7 +11221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12279D86-6205-4796-9A86-B2A78591BA0B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -62720,7 +62716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9541E836-2B1F-4494-A092-93C387A08EE3}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/data/data_metals_pellan.xlsx
+++ b/data/data_metals_pellan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{BF578DF0-2D86-4DDF-9DE6-18E968EAC74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB9AC5A-ED9A-4CAB-956A-A55FA40AEE1E}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{BF578DF0-2D86-4DDF-9DE6-18E968EAC74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{511CF077-6D21-49AF-9AFE-FE64CE19C8A7}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2844DFE2-D459-4E43-A30E-C93D1E70E07A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2844DFE2-D459-4E43-A30E-C93D1E70E07A}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
     <sheet name="Nassar2022" sheetId="15" r:id="rId2"/>
-    <sheet name="Harpeccht2021" sheetId="16" r:id="rId3"/>
+    <sheet name="Harpeccht2021_OG_NRJ" sheetId="16" r:id="rId3"/>
     <sheet name="Mudd2018_cop" sheetId="7" r:id="rId4"/>
     <sheet name="Mudd2014_ni" sheetId="9" r:id="rId5"/>
     <sheet name="Chartier-Poncelet_2022" sheetId="14" r:id="rId6"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6120" uniqueCount="3109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6145" uniqueCount="3122">
   <si>
     <t>Ni</t>
   </si>
@@ -9473,15 +9473,55 @@
   <si>
     <t>Rock to metal</t>
   </si>
+  <si>
+    <t>Ore grade (in %)</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Cu (global average)</t>
+  </si>
+  <si>
+    <t>Energy requirements in MJ / kg of metal produced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni </t>
+  </si>
+  <si>
+    <t>FeNi</t>
+  </si>
+  <si>
+    <t>Kulczycka 2016</t>
+  </si>
+  <si>
+    <t>Regression model</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>GJ/t Cu</t>
+  </si>
+  <si>
+    <t>kWh/t Cu</t>
+  </si>
+  <si>
+    <t>Efficiency improvements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9585,6 +9625,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -9604,7 +9651,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -9649,6 +9696,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9664,7 +9843,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9709,6 +9888,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -10023,16 +10253,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>541638</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46222</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>46338</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>130042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10055,7 +10285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="7429500" y="4838700"/>
           <a:ext cx="6637638" cy="3703822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10075,7 +10305,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>602821</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>30895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10162,14 +10392,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>168605</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55564</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>164421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10192,8 +10422,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="542925"/>
-          <a:ext cx="11141405" cy="3675064"/>
+          <a:off x="0" y="478971"/>
+          <a:ext cx="11141405" cy="3756707"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10204,15 +10434,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37011</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>343635</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>594006</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>49720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10236,8 +10466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11369040" y="750570"/>
-          <a:ext cx="8481795" cy="2194750"/>
+          <a:off x="11619411" y="581842"/>
+          <a:ext cx="8481795" cy="2243735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10291,6 +10521,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10779,7 +11013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF205C2-BA5C-40AA-BEAA-0983134D4D2F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -11219,14 +11453,625 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12279D86-6205-4796-9A86-B2A78591BA0B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.1521990639345807</v>
+      </c>
+      <c r="C3" s="32">
+        <v>1.2980993431206669</v>
+      </c>
+      <c r="D3" s="32">
+        <v>5.9300966727710769</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2.9387420044491375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1.1733340081814383</v>
+      </c>
+      <c r="C4" s="35">
+        <v>1.2128951561143577</v>
+      </c>
+      <c r="D4" s="35">
+        <v>5.4951269960925524</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2.5516510378022583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>2030</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1.091513105380393</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1.1336635859145239</v>
+      </c>
+      <c r="D5" s="32">
+        <v>5.0939780910442032</v>
+      </c>
+      <c r="E5" s="33">
+        <v>2.2170935357275154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>2040</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.86733835108267987</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1.0599595821444254</v>
+      </c>
+      <c r="D6" s="32">
+        <v>4.7238726902084123</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1.9277321471138102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="37">
+        <v>2050</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0.76719156972641978</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.99137320471934332</v>
+      </c>
+      <c r="D7" s="38">
+        <v>4.3822735897624234</v>
+      </c>
+      <c r="E7" s="39">
+        <v>1.6772830920628847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="40" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="46">
+        <v>1900</v>
+      </c>
+      <c r="B12" s="32">
+        <v>551.93505719150858</v>
+      </c>
+      <c r="C12" s="32">
+        <v>517.24077822966285</v>
+      </c>
+      <c r="D12" s="32">
+        <v>846.03648756248526</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1139.3510481801304</v>
+      </c>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="46">
+        <v>1910</v>
+      </c>
+      <c r="B13" s="32">
+        <v>596.55697592956164</v>
+      </c>
+      <c r="C13" s="32">
+        <v>597.43911099950731</v>
+      </c>
+      <c r="D13" s="32">
+        <v>870.17352034686155</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1179.0230574348109</v>
+      </c>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="46">
+        <v>1920</v>
+      </c>
+      <c r="B14" s="32">
+        <v>644.78641262814631</v>
+      </c>
+      <c r="C14" s="32">
+        <v>690.07221853919214</v>
+      </c>
+      <c r="D14" s="32">
+        <v>894.99917160124335</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1220.0764392882329</v>
+      </c>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="46">
+        <v>1930</v>
+      </c>
+      <c r="B15" s="32">
+        <v>696.91502184187618</v>
+      </c>
+      <c r="C15" s="32">
+        <v>797.06811628540186</v>
+      </c>
+      <c r="D15" s="32">
+        <v>920.53308729460548</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1262.5592928987808</v>
+      </c>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="46">
+        <v>1940</v>
+      </c>
+      <c r="B16" s="32">
+        <v>753.25803732307349</v>
+      </c>
+      <c r="C16" s="32">
+        <v>920.65375902779772</v>
+      </c>
+      <c r="D16" s="32">
+        <v>946.7954738864039</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1306.5213922293326</v>
+      </c>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="46">
+        <v>1950</v>
+      </c>
+      <c r="B17" s="32">
+        <v>814.15617831315194</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1063.4013915424478</v>
+      </c>
+      <c r="D17" s="32">
+        <v>973.80711431711006</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1352.0142443636694</v>
+      </c>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="46">
+        <v>1960</v>
+      </c>
+      <c r="B18" s="32">
+        <v>879.9777099506465</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1228.2820859044266</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1001.5893844549506</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1399.0911498534474</v>
+      </c>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="46">
+        <v>1970</v>
+      </c>
+      <c r="B19" s="32">
+        <v>951.12067025565068</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1418.7275797762643</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1030.1642700118657</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1447.8072651664449</v>
+      </c>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="46">
+        <v>1980</v>
+      </c>
+      <c r="B20" s="32">
+        <v>1028.0152771577527</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1638.7017027409725</v>
+      </c>
+      <c r="D20" s="32">
+        <v>1059.5543839420682</v>
+      </c>
+      <c r="E20" s="32">
+        <v>1498.2196673092442</v>
+      </c>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="46">
+        <v>1990</v>
+      </c>
+      <c r="B21" s="32">
+        <v>1111.1265301233236</v>
+      </c>
+      <c r="C21" s="32">
+        <v>1892.7828773087253</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1089.7829843369777</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1550.3874207000674</v>
+      </c>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="46">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1200.9570221148015</v>
+      </c>
+      <c r="C22" s="32">
+        <v>2186.259411728578</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1120.8739928306916</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1604.3716463701078</v>
+      </c>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="46">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1298.0499788865375</v>
+      </c>
+      <c r="C23" s="32">
+        <v>2525.2395679782885</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1152.8520135305505</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1660.2355935744461</v>
+      </c>
+      <c r="F23" s="33">
+        <v>166.475141784046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="32">
+        <v>1402.9925439965289</v>
+      </c>
+      <c r="C24" s="32">
+        <v>2916.7786958279098</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1185.7423524877886</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1718.04471389644</v>
+      </c>
+      <c r="F24" s="33">
+        <v>164.87905855335299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="46">
+        <v>2030</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1516.4193293992635</v>
+      </c>
+      <c r="C25" s="32">
+        <v>3369.0260790768293</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1219.5710377236694</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1777.866737932424</v>
+      </c>
+      <c r="F25" s="33">
+        <v>171.31825105448436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
+        <v>2040</v>
+      </c>
+      <c r="B26" s="32">
+        <v>1639.0162530909367</v>
+      </c>
+      <c r="C26" s="32">
+        <v>3891.394550342487</v>
+      </c>
+      <c r="D26" s="32">
+        <v>1254.36483982696</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1839.7717546465462</v>
+      </c>
+      <c r="F26" s="33">
+        <v>193.51696603121351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="47">
+        <v>2050</v>
+      </c>
+      <c r="B27" s="38">
+        <v>1771.5246870141611</v>
+      </c>
+      <c r="C27" s="38">
+        <v>4494.7564046712969</v>
+      </c>
+      <c r="D27" s="38">
+        <v>1290.1512931390412</v>
+      </c>
+      <c r="E27" s="38">
+        <v>1903.8322934887403</v>
+      </c>
+      <c r="F27" s="39">
+        <v>206.51897096087887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="52"/>
+      <c r="B31" s="40" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>3118</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="46">
+        <v>2010</v>
+      </c>
+      <c r="B33" s="56">
+        <v>6.1</v>
+      </c>
+      <c r="C33" s="57">
+        <v>6.1</v>
+      </c>
+      <c r="D33" s="58">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="57">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="46">
+        <v>2015</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="57">
+        <v>5.6547000000000001</v>
+      </c>
+      <c r="E34" s="57">
+        <v>1006.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="57">
+        <v>5.2419069</v>
+      </c>
+      <c r="E35" s="57">
+        <v>920.9475000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="59"/>
+      <c r="C36" s="57">
+        <v>4.8592476963000006</v>
+      </c>
+      <c r="E36" s="57">
+        <v>842.66696250000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="46">
+        <v>2030</v>
+      </c>
+      <c r="B37" s="56">
+        <v>3.7</v>
+      </c>
+      <c r="C37" s="57">
+        <v>4.5045226144701012</v>
+      </c>
+      <c r="D37" s="58">
+        <v>660</v>
+      </c>
+      <c r="E37" s="57">
+        <v>771.0402706875002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="46">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="57">
+        <v>4.1756924636137835</v>
+      </c>
+      <c r="E38" s="57">
+        <v>705.50184767906273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="46">
+        <v>2040</v>
+      </c>
+      <c r="B39" s="59"/>
+      <c r="C39" s="57">
+        <v>3.8708669137699787</v>
+      </c>
+      <c r="E39" s="57">
+        <v>645.53419062634248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="46">
+        <v>2045</v>
+      </c>
+      <c r="B40" s="59"/>
+      <c r="C40" s="57">
+        <v>3.5882936290647702</v>
+      </c>
+      <c r="E40" s="57">
+        <v>590.66378442310327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="47">
+        <v>2050</v>
+      </c>
+      <c r="B41" s="60">
+        <v>3.6</v>
+      </c>
+      <c r="C41" s="61">
+        <v>3.3263481941430424</v>
+      </c>
+      <c r="D41" s="62">
+        <v>590</v>
+      </c>
+      <c r="E41" s="61">
+        <v>540.45736274713965</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11236,8 +12081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62663AE5-6755-41EA-9492-152C7EEB89EB}">
   <dimension ref="A1:F2299"/>
   <sheetViews>
-    <sheetView topLeftCell="A2275" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62716,8 +63561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9541E836-2B1F-4494-A092-93C387A08EE3}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
